--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/32.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/32.xlsx
@@ -479,13 +479,13 @@
         <v>-14.97122417299956</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.64807699455031</v>
+        <v>-14.62157817359866</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6776864935325169</v>
+        <v>-0.672135357127625</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.34454858770894</v>
+        <v>-11.29932777369362</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.87150903443578</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.81207117994577</v>
+        <v>-14.78580802044527</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6037018901739228</v>
+        <v>-0.6032567518773041</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.12923257517391</v>
+        <v>-11.0802804548487</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.78386198884655</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.15886009761741</v>
+        <v>-15.13135316934694</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4071602399139311</v>
+        <v>-0.40912408534019</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.70332687142972</v>
+        <v>-10.65319644384875</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.65978602160402</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.6276561854711</v>
+        <v>-15.60041110325746</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3941726754949388</v>
+        <v>-0.3967518591547589</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.50882762041304</v>
+        <v>-10.45644531674329</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.46399366785711</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.13363441339528</v>
+        <v>-16.10381014752183</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3318140370597976</v>
+        <v>-0.3371687889220635</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.27210569273179</v>
+        <v>-10.22333686464636</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.1714333225795</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.66126731021969</v>
+        <v>-16.62849727620685</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3101855527652661</v>
+        <v>-0.3192061494232153</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.14600063176028</v>
+        <v>-10.09657718853277</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.76695810798033</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.19646755808661</v>
+        <v>-17.16208717082423</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09881032338559871</v>
+        <v>-0.1066002435764257</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.918273116131301</v>
+        <v>-9.872083471705691</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.26316770660073</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.83263564546892</v>
+        <v>-17.79530949006716</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02139553668247247</v>
+        <v>-0.02311062835473859</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.862735567476699</v>
+        <v>-9.82034269087519</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.68626232968933</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.2637782703498</v>
+        <v>-18.22395148510527</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1679453470145699</v>
+        <v>0.1636641639853255</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.598624542250558</v>
+        <v>-9.554791512336459</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.06962493340332</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.86263329463319</v>
+        <v>-18.82173294055564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3784695767095251</v>
+        <v>0.3700512259822952</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.466405375851968</v>
+        <v>-9.428332959188229</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.4525270202444</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.39765025026033</v>
+        <v>-19.35493006608777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3756940085070792</v>
+        <v>0.3720805329227628</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.947491952720155</v>
+        <v>-8.91013961271271</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.85313165270198</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.18181372896551</v>
+        <v>-20.13817708359404</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5384967943439428</v>
+        <v>0.5324088735225402</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.379469301629028</v>
+        <v>-8.340532792977735</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.29037426673402</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.02980218402411</v>
+        <v>-20.98510506212245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7729144767250481</v>
+        <v>0.7664861560297606</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.904415093016997</v>
+        <v>-7.857924325626028</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.767692300329818</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.84985166481846</v>
+        <v>-21.80541638897364</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8582893835559438</v>
+        <v>0.8518217859521311</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.309985267094109</v>
+        <v>-7.267121067590297</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.272497983058647</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.77731039812634</v>
+        <v>-22.73205030720249</v>
       </c>
       <c r="F16" t="n">
-        <v>1.132677866512839</v>
+        <v>1.125464007647048</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.900824618684485</v>
+        <v>-6.854543328138984</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.796938119807162</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.38478015767958</v>
+        <v>-23.339415328333</v>
       </c>
       <c r="F17" t="n">
-        <v>1.286381501874703</v>
+        <v>1.279926996573732</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.808759545101467</v>
+        <v>-6.758498194492081</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.326714659379128</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.20890134465771</v>
+        <v>-24.1619261620616</v>
       </c>
       <c r="F18" t="n">
-        <v>1.611947796639905</v>
+        <v>1.604825583894006</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.329738368728394</v>
+        <v>-6.282475155469763</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.853178733222705</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.9816745198906</v>
+        <v>-24.93500046025984</v>
       </c>
       <c r="F19" t="n">
-        <v>1.829646608292126</v>
+        <v>1.823624148984932</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.148187405222179</v>
+        <v>-6.09737617789344</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.374878551527341</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.77649513310894</v>
+        <v>-25.72835473555992</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0111844794955</v>
+        <v>2.007230604037298</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.912971092367728</v>
+        <v>-5.862762110969709</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.882352317981152</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.34531641467342</v>
+        <v>-26.29772589384374</v>
       </c>
       <c r="F21" t="n">
-        <v>2.338046912242032</v>
+        <v>2.337523220128364</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.634052672627596</v>
+        <v>-5.584956536971124</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.381912656069013</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.95171260539364</v>
+        <v>-26.90180474696098</v>
       </c>
       <c r="F22" t="n">
-        <v>2.570173441625836</v>
+        <v>2.57255624074303</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.16555770773927</v>
+        <v>-5.129095644325063</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.880653435040724</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.44548880706934</v>
+        <v>-27.39821250150787</v>
       </c>
       <c r="F23" t="n">
-        <v>2.785751300217697</v>
+        <v>2.788474499208776</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.081177815924346</v>
+        <v>-5.038483816357477</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.387813135369692</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.66765209399059</v>
+        <v>-27.61965571177282</v>
       </c>
       <c r="F24" t="n">
-        <v>2.818508241927696</v>
+        <v>2.826887315746401</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.834034415181083</v>
+        <v>-4.797703274795293</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.923140793245393</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.00462178453094</v>
+        <v>-27.95690034067285</v>
       </c>
       <c r="F25" t="n">
-        <v>3.133692340539409</v>
+        <v>3.140683630256891</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.589705859548792</v>
+        <v>-4.553780580551095</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.501796064599233</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.97854191727022</v>
+        <v>-27.93041461202403</v>
       </c>
       <c r="F26" t="n">
-        <v>3.142437998837682</v>
+        <v>3.154744763508905</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.631627413247998</v>
+        <v>-4.590857982198863</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.139020115855118</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.9180423858386</v>
+        <v>-27.86590883592285</v>
       </c>
       <c r="F27" t="n">
-        <v>3.157598885528401</v>
+        <v>3.170455526918976</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.484836513786566</v>
+        <v>-4.44830898885815</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.845552862802016</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.80716367307202</v>
+        <v>-27.76024085968728</v>
       </c>
       <c r="F28" t="n">
-        <v>3.272313643027605</v>
+        <v>3.281033116720194</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.527137744268182</v>
+        <v>-4.488777296941925</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.614813668924062</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.70555431071739</v>
+        <v>-27.65476926799433</v>
       </c>
       <c r="F29" t="n">
-        <v>3.239556701317606</v>
+        <v>3.251811096777462</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.429613180400165</v>
+        <v>-4.394329424241713</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.440343444386241</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.54508195478635</v>
+        <v>-27.495396665502</v>
       </c>
       <c r="F30" t="n">
-        <v>3.260268724413217</v>
+        <v>3.26817647532962</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.362999543541463</v>
+        <v>-4.328959556152975</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.310898630714001</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.16108471243853</v>
+        <v>-27.1101818389899</v>
       </c>
       <c r="F31" t="n">
-        <v>3.127853173471999</v>
+        <v>3.137829508237395</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.539889647236024</v>
+        <v>-4.505208137008291</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.213023367442679</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.85664939445987</v>
+        <v>-26.80523592120041</v>
       </c>
       <c r="F32" t="n">
-        <v>3.092294478953872</v>
+        <v>3.101406721731713</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.698044665564074</v>
+        <v>-4.660090079625911</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.138804584377683</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.3973975953778</v>
+        <v>-26.34783013681903</v>
       </c>
       <c r="F33" t="n">
-        <v>3.012850385310278</v>
+        <v>3.021019982283515</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.867393602821801</v>
+        <v>-4.826951479343709</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.080245525680589</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.91765634234843</v>
+        <v>-25.86950285249657</v>
       </c>
       <c r="F34" t="n">
-        <v>2.988027379122365</v>
+        <v>2.990226885999775</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.784964464130294</v>
+        <v>-4.746250524627309</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.032708196595498</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.56047213622046</v>
+        <v>-25.51152001589525</v>
       </c>
       <c r="F35" t="n">
-        <v>2.776508134411439</v>
+        <v>2.77742459561036</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.987201266126436</v>
+        <v>-4.940448652678633</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.995244670836707</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.81130438301122</v>
+        <v>-24.76555987688223</v>
       </c>
       <c r="F36" t="n">
-        <v>2.674231064611875</v>
+        <v>2.674021587766407</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.313854222027501</v>
+        <v>-5.268528669589446</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.966192706393849</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.3601959962967</v>
+        <v>-24.31714850455311</v>
       </c>
       <c r="F37" t="n">
-        <v>2.497196945586055</v>
+        <v>2.49837525284181</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.478529207170732</v>
+        <v>-5.427652518327784</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.948388475246338</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.975609600321</v>
+        <v>-23.93231335482341</v>
       </c>
       <c r="F38" t="n">
-        <v>2.484628334857998</v>
+        <v>2.483161996939725</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.582848676213605</v>
+        <v>-5.53312411002073</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.945099562568477</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.51673747802134</v>
+        <v>-23.47325794028397</v>
       </c>
       <c r="F39" t="n">
-        <v>2.298010650152035</v>
+        <v>2.302619140752322</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.536200801188536</v>
+        <v>-5.484027974364257</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.956234089470392</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.14300460110143</v>
+        <v>-23.10002257087204</v>
       </c>
       <c r="F40" t="n">
-        <v>2.382901141777786</v>
+        <v>2.384105633639225</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.59410805665749</v>
+        <v>-5.540311784280838</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.982028492517508</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.56442955391987</v>
+        <v>-22.52863519795059</v>
       </c>
       <c r="F41" t="n">
-        <v>2.329091777098292</v>
+        <v>2.334223959812249</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.575713371164865</v>
+        <v>-5.520686422321091</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.02319907206035</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.97212068105734</v>
+        <v>-21.93275212641227</v>
       </c>
       <c r="F42" t="n">
-        <v>2.501569774735191</v>
+        <v>2.506885249688932</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.59258934952785</v>
+        <v>-5.536279355005586</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.080438560124062</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.24691184204845</v>
+        <v>-21.21122222450191</v>
       </c>
       <c r="F43" t="n">
-        <v>2.612775795072813</v>
+        <v>2.617567577912884</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.576786939997886</v>
+        <v>-5.520084176390371</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.159475412356032</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.04529037828587</v>
+        <v>-21.00415436275717</v>
       </c>
       <c r="F44" t="n">
-        <v>2.560956460425261</v>
+        <v>2.565826797082383</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.681446808914645</v>
+        <v>-5.624717860701446</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.265300366065873</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.59276802286445</v>
+        <v>-20.55350420664211</v>
       </c>
       <c r="F45" t="n">
-        <v>2.628486558482884</v>
+        <v>2.634011510282092</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.662554615914034</v>
+        <v>-5.60450334511382</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.401394316642318</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.20653199673069</v>
+        <v>-20.16898327218062</v>
       </c>
       <c r="F46" t="n">
-        <v>2.770773705766763</v>
+        <v>2.771454505514532</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.725515500279895</v>
+        <v>-5.672033443171443</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.574634190105268</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.69910052319107</v>
+        <v>-19.6643142745406</v>
       </c>
       <c r="F47" t="n">
-        <v>2.666925559626192</v>
+        <v>2.675042787388062</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.02721452696463</v>
+        <v>-5.972344685754956</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.78653119202143</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.21825951672299</v>
+        <v>-19.18338162195264</v>
       </c>
       <c r="F48" t="n">
-        <v>2.70704037553324</v>
+        <v>2.710941881780074</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.115024602124087</v>
+        <v>-6.063270728990743</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.038556541871188</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.62492944423881</v>
+        <v>-18.59513136297105</v>
       </c>
       <c r="F49" t="n">
-        <v>2.661505346249717</v>
+        <v>2.668470451361515</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.465178241626051</v>
+        <v>-6.40813507814465</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.335272737319086</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.11782527827024</v>
+        <v>-18.08920550425822</v>
       </c>
       <c r="F50" t="n">
-        <v>2.699368286067989</v>
+        <v>2.708140128971945</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.475809191533532</v>
+        <v>-6.423570903195045</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.67515362081392</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.41548869232584</v>
+        <v>-17.38812577938663</v>
       </c>
       <c r="F51" t="n">
-        <v>2.703217423103456</v>
+        <v>2.709292251622017</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.80453073128359</v>
+        <v>-6.746413998969168</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.059286701568726</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.04830196682679</v>
+        <v>-17.0202844387455</v>
       </c>
       <c r="F52" t="n">
-        <v>2.559778153169505</v>
+        <v>2.566847996704038</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.791124213173663</v>
+        <v>-6.740090416696614</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.484490237082167</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.58771475285487</v>
+        <v>-16.56070533209239</v>
       </c>
       <c r="F53" t="n">
-        <v>2.633147418294538</v>
+        <v>2.640845692365473</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.869599476406969</v>
+        <v>-6.816772034440604</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.942107531177596</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.28982558629708</v>
+        <v>-16.2625674117806</v>
       </c>
       <c r="F54" t="n">
-        <v>2.386174217488218</v>
+        <v>2.39256326127498</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.19440641760735</v>
+        <v>-7.136512254441238</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.429655812219709</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.86186439100674</v>
+        <v>-15.84058939888893</v>
       </c>
       <c r="F55" t="n">
-        <v>2.343179094955989</v>
+        <v>2.343519494829874</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.308806959838353</v>
+        <v>-7.258401593897708</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.935421865492655</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.47273496594495</v>
+        <v>-15.45197057363798</v>
       </c>
       <c r="F56" t="n">
-        <v>2.187092660476931</v>
+        <v>2.192748535304557</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.490030615773525</v>
+        <v>-7.437844696646406</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.447787671828194</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.90990995908199</v>
+        <v>-14.88989182803699</v>
       </c>
       <c r="F57" t="n">
-        <v>2.13391172633384</v>
+        <v>2.139803262612617</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.793549472553261</v>
+        <v>-7.739949584719234</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.95817684270929</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.67707644534473</v>
+        <v>-14.65631205303776</v>
       </c>
       <c r="F58" t="n">
-        <v>1.975756708005789</v>
+        <v>1.980208090971976</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.80499214523693</v>
+        <v>-7.747412197339018</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.450990367482488</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.29801500116824</v>
+        <v>-14.27675310135328</v>
       </c>
       <c r="F59" t="n">
-        <v>2.009770510788593</v>
+        <v>2.015845339307154</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.94675560040714</v>
+        <v>-7.890851467272969</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.917364143572124</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.20852911124504</v>
+        <v>-14.18614127338569</v>
       </c>
       <c r="F60" t="n">
-        <v>1.834778791006083</v>
+        <v>1.838994512521118</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.887944976042106</v>
+        <v>-7.832407427387504</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.346222325753551</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.93243862891872</v>
+        <v>-13.90810003793595</v>
       </c>
       <c r="F61" t="n">
-        <v>1.728259815085799</v>
+        <v>1.733208705559972</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.132718669971016</v>
+        <v>-8.081488488951342</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.726030719972085</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.61199142456464</v>
+        <v>-13.58779684891313</v>
       </c>
       <c r="F62" t="n">
-        <v>1.674555188829039</v>
+        <v>1.679006571795226</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.316901186348419</v>
+        <v>-8.258352408040219</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.05627624877453</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.22521861401436</v>
+        <v>-13.20328900675447</v>
       </c>
       <c r="F63" t="n">
-        <v>1.614147303517315</v>
+        <v>1.617577486861847</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.365015399291762</v>
+        <v>-8.309752788996835</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.33112938733485</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.04432226565023</v>
+        <v>-13.01919813649696</v>
       </c>
       <c r="F64" t="n">
-        <v>1.515955032204369</v>
+        <v>1.518128354476096</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.52330134064823</v>
+        <v>-8.468654068586865</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.55129902037929</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.81250995153463</v>
+        <v>-12.78899617563089</v>
       </c>
       <c r="F65" t="n">
-        <v>1.474059663110846</v>
+        <v>1.474688093647249</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.732882924538581</v>
+        <v>-8.680016205663691</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.72054328077314</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.59062160297306</v>
+        <v>-12.56624373508176</v>
       </c>
       <c r="F66" t="n">
-        <v>1.369504532616822</v>
+        <v>1.37275142372157</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.788485934707392</v>
+        <v>-8.737962738041171</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.8404470150096</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.40268159568008</v>
+        <v>-12.37889288141666</v>
       </c>
       <c r="F67" t="n">
-        <v>1.395374923032072</v>
+        <v>1.399512090730058</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.74174641356243</v>
+        <v>-8.68979615588646</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.9201647792669</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.31049869137149</v>
+        <v>-12.28595062354325</v>
       </c>
       <c r="F68" t="n">
-        <v>1.282349072599451</v>
+        <v>1.286551701811645</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.731848632614085</v>
+        <v>-8.681194512919447</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.96331346154963</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.18517916857049</v>
+        <v>-12.1603954392911</v>
       </c>
       <c r="F69" t="n">
-        <v>1.119585563671113</v>
+        <v>1.125189069287371</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.739612368199229</v>
+        <v>-8.692309878032072</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.97394507441868</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.10269766066761</v>
+        <v>-12.07722003933761</v>
       </c>
       <c r="F70" t="n">
-        <v>1.246044116819345</v>
+        <v>1.249592130889452</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.662393966038728</v>
+        <v>-8.616086490887543</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.95875421985919</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.86265028806456</v>
+        <v>-11.83414834477813</v>
       </c>
       <c r="F71" t="n">
-        <v>1.172674851694312</v>
+        <v>1.176615634849671</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.467135361457226</v>
+        <v>-8.426483761133666</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.91463488004378</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.83311405285363</v>
+        <v>-11.80520126319507</v>
       </c>
       <c r="F72" t="n">
-        <v>1.158234041659888</v>
+        <v>1.163758993459096</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.457983841770858</v>
+        <v>-8.418379625674637</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.84267325863216</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.80280537177503</v>
+        <v>-11.77720991971946</v>
       </c>
       <c r="F73" t="n">
-        <v>1.085309914831474</v>
+        <v>1.092837988965466</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.367227998472014</v>
+        <v>-8.324625645025037</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.74012314103338</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.97462875426985</v>
+        <v>-11.94941297899668</v>
       </c>
       <c r="F74" t="n">
-        <v>1.151910459387334</v>
+        <v>1.157854364877478</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.227664050179214</v>
+        <v>-8.188452603168244</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.60690721899939</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.109283088997</v>
+        <v>-12.08591332842452</v>
       </c>
       <c r="F75" t="n">
-        <v>1.096896602846401</v>
+        <v>1.103508215781473</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.032994599225589</v>
+        <v>-7.995930289880662</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.44915606364681</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.42610372546393</v>
+        <v>-12.40427885662677</v>
       </c>
       <c r="F76" t="n">
-        <v>1.091633497104028</v>
+        <v>1.098074910102157</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.856327064679338</v>
+        <v>-7.819904278173655</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.2674675177225</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.97539129118855</v>
+        <v>-12.9568002211533</v>
       </c>
       <c r="F77" t="n">
-        <v>1.061193892997014</v>
+        <v>1.068918351673633</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.67498557801859</v>
+        <v>-7.639649452648771</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.06806658103638</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.5117305694027</v>
+        <v>-13.49287765331061</v>
       </c>
       <c r="F78" t="n">
-        <v>1.084602930478021</v>
+        <v>1.09226192764043</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.529098047453236</v>
+        <v>-7.494141598865827</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.857292104008879</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.00743133959613</v>
+        <v>-13.9891283002234</v>
       </c>
       <c r="F79" t="n">
-        <v>1.043768037914677</v>
+        <v>1.056100987191583</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.362629416820689</v>
+        <v>-7.323339415992669</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.635059358003916</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.53575812847114</v>
+        <v>-14.51744199679557</v>
       </c>
       <c r="F80" t="n">
-        <v>1.199527164822692</v>
+        <v>1.203625055612152</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.152236110154151</v>
+        <v>-7.111663063647642</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.406706764488272</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.2990786610523</v>
+        <v>-15.28002936041759</v>
       </c>
       <c r="F81" t="n">
-        <v>1.122387316479242</v>
+        <v>1.134301312065213</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.029600509435703</v>
+        <v>-6.988516863118367</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.170726552978991</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.03625386485853</v>
+        <v>-16.02035980920867</v>
       </c>
       <c r="F82" t="n">
-        <v>1.169257760652621</v>
+        <v>1.179273372326542</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.916535382094557</v>
+        <v>-6.876996627512544</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.929569729839793</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.86974914067133</v>
+        <v>-16.85558326899659</v>
       </c>
       <c r="F83" t="n">
-        <v>1.105511338116257</v>
+        <v>1.117019472314134</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.719941362623198</v>
+        <v>-6.67604287119489</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.68762244236712</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.95021761729046</v>
+        <v>-17.93602556101003</v>
       </c>
       <c r="F84" t="n">
-        <v>1.187024015608844</v>
+        <v>1.199789010879527</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.524839865675796</v>
+        <v>-6.484044250020978</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.442910626365986</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.77686561871704</v>
+        <v>-18.76120722451834</v>
       </c>
       <c r="F85" t="n">
-        <v>1.181040833210175</v>
+        <v>1.191344475546613</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.304548778060913</v>
+        <v>-6.263019993446958</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.199742642233982</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.80809394434844</v>
+        <v>-19.79424228794189</v>
       </c>
       <c r="F86" t="n">
-        <v>1.212907498326936</v>
+        <v>1.222635079338338</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.018573607089091</v>
+        <v>-5.976782976418301</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.962694995555811</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.87527373358321</v>
+        <v>-20.86376559938534</v>
       </c>
       <c r="F87" t="n">
-        <v>1.249382654043985</v>
+        <v>1.258691281364452</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.695651957497917</v>
+        <v>-5.654961080265832</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.733235320718031</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.22869053984665</v>
+        <v>-22.21682891347204</v>
       </c>
       <c r="F88" t="n">
-        <v>1.326430856267543</v>
+        <v>1.333631622830492</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.488230603576452</v>
+        <v>-5.444292835239619</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.517601200366083</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.69179465931806</v>
+        <v>-23.68005086366903</v>
       </c>
       <c r="F89" t="n">
-        <v>1.145927276988665</v>
+        <v>1.152041382415752</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.078088032453699</v>
+        <v>-5.035420217492513</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.31381350797139</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.18523364447375</v>
+        <v>-25.17394807942419</v>
       </c>
       <c r="F90" t="n">
-        <v>1.004163821818456</v>
+        <v>1.01140386528993</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.929215456840431</v>
+        <v>-4.884911104024031</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.122941966545456</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.66747871069977</v>
+        <v>-26.6643496503206</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8324059008378514</v>
+        <v>0.8384807293564123</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.904955419674713</v>
+        <v>-4.858962159791729</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.944764535851551</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.35086082548322</v>
+        <v>-28.3493159337479</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7751270759052998</v>
+        <v>0.7822885655597239</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.639050748959257</v>
+        <v>-4.594222704029186</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.772495127101861</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.29601044328415</v>
+        <v>-30.29206966012879</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6943213827661665</v>
+        <v>0.6972016893913462</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.721584626073498</v>
+        <v>-4.676193612121233</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.603559095311438</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.44867306112643</v>
+        <v>-32.44520360087338</v>
       </c>
       <c r="F94" t="n">
-        <v>0.68774904673962</v>
+        <v>0.6888880770868502</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.734703113520907</v>
+        <v>-4.689050253511809</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.434709755932667</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.57482376571422</v>
+        <v>-34.56918098318944</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2612934662760768</v>
+        <v>0.261712419967012</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.781403357757345</v>
+        <v>-4.734794759640799</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.260400312252057</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.61773360883431</v>
+        <v>-36.60959019646676</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08293702466324256</v>
+        <v>0.07932354907892616</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.956093954574495</v>
+        <v>-4.909655556394893</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.082335489231765</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.8049729984816</v>
+        <v>-38.7948395560821</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2321685201314204</v>
+        <v>-0.2360569340754131</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.047124736233017</v>
+        <v>-5.000869630293199</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.895401989511158</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.18163182564297</v>
+        <v>-41.16868353813251</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4924565929277764</v>
+        <v>-0.4968686989854381</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.275821082272287</v>
+        <v>-5.230168222263189</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.705793631783006</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.59204260953032</v>
+        <v>-43.58145093653136</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3755030516426374</v>
+        <v>-0.3804781267224934</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.612934788143892</v>
+        <v>-5.565043144348858</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.514329607224016</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.06184007910773</v>
+        <v>-46.05033194490986</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5044622346336393</v>
+        <v>-0.5089005252969844</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.814124205912696</v>
+        <v>-5.770317360604281</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.329403021877597</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.47066669435123</v>
+        <v>-48.45989172911248</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5392353909812636</v>
+        <v>-0.5434642047991411</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.176322764029048</v>
+        <v>-6.132673026354733</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.142501964207762</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.75401667915962</v>
+        <v>-50.74199794515091</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6702762501240999</v>
+        <v>-0.6736671565601069</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.46290018093159</v>
+        <v>-6.420742965781232</v>
       </c>
     </row>
   </sheetData>
